--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uiano-my.sharepoint.com/personal/nicola16_uia_no/Documents/IKT590-masteroppgave/final_code+presentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\IKT590\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="689" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{53108915-C6DF-490F-9F6F-4AFF16A36099}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279F2026-2D40-4D73-B69C-60875F4026AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1_experiment1" sheetId="4" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Epoch</t>
-  </si>
-  <si>
-    <t>  Generator Loss </t>
   </si>
   <si>
     <t xml:space="preserve"> Discriminator loss </t>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>DAE - Discriminator</t>
+  </si>
+  <si>
+    <t> DAE  Loss </t>
   </si>
 </sst>
 </file>
@@ -10939,37 +10939,37 @@
   <sheetData>
     <row r="3" spans="6:13">
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="6:13">
       <c r="M6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="6:13">
       <c r="M8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="6:13">
       <c r="M9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="6:13">
       <c r="M10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="6:13">
       <c r="M11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="6:13">
       <c r="M15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -10994,37 +10994,37 @@
   <sheetData>
     <row r="7" spans="6:12">
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="L9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="L10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="L11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="L12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="6:12">
       <c r="L13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="6:12">
       <c r="L15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -11050,37 +11050,37 @@
   <sheetData>
     <row r="4" spans="5:13">
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="M11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="5:13">
       <c r="M12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="5:13">
       <c r="M13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="5:13">
       <c r="M14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="5:13">
       <c r="M15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="13:13">
       <c r="M20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -11093,7 +11093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6D56AF-E6E0-4DB3-8A5E-C31BC9D03FFE}">
   <dimension ref="E8:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -11106,37 +11106,37 @@
   <sheetData>
     <row r="8" spans="5:9">
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="I13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="I15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -11161,37 +11161,37 @@
   <sheetData>
     <row r="5" spans="5:11">
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="5:11">
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="5:11">
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="5:11">
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="5:11">
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="5:11">
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -11217,37 +11217,37 @@
   <sheetData>
     <row r="6" spans="5:12">
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="5:12">
       <c r="L11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="5:12">
       <c r="L12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="5:12">
       <c r="L13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="5:12">
       <c r="L14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="5:12">
       <c r="L15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -11274,21 +11274,21 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -12693,7 +12693,7 @@
     </row>
     <row r="104" spans="2:8">
       <c r="H104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12719,21 +12719,21 @@
   <sheetData>
     <row r="1" spans="3:8">
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:8">
@@ -14146,8 +14146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14159,7 +14159,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -14167,13 +14167,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7">
